--- a/Tables/PERMANOVA_den_spInt_2.xlsx
+++ b/Tables/PERMANOVA_den_spInt_2.xlsx
@@ -398,7 +398,7 @@
         <v>0.002650713101611</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5502</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="3">
@@ -418,7 +418,7 @@
         <v>0.0401167365139694</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0105</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="4">
@@ -438,7 +438,7 @@
         <v>0.00251120188573678</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5706</v>
+        <v>0.577</v>
       </c>
     </row>
     <row r="5">
@@ -488,7 +488,7 @@
         <v>0.0138722947395802</v>
       </c>
       <c r="F7" t="n">
-        <v>0.161</v>
+        <v>0.1574</v>
       </c>
     </row>
     <row r="8">
@@ -508,7 +508,7 @@
         <v>0.0199970674413946</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0839</v>
+        <v>0.0854</v>
       </c>
     </row>
     <row r="9">
@@ -528,7 +528,7 @@
         <v>0.00000256362145470215</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9861</v>
+        <v>0.9872</v>
       </c>
     </row>
     <row r="10">
@@ -578,7 +578,7 @@
         <v>0.00114305871585833</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7017</v>
+        <v>0.7038</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         <v>0.00093456869933978</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7261</v>
+        <v>0.7262</v>
       </c>
     </row>
     <row r="14">
@@ -618,7 +618,7 @@
         <v>0.00214741963653068</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5985</v>
+        <v>0.5914</v>
       </c>
     </row>
     <row r="15">
@@ -668,7 +668,7 @@
         <v>0.0254872316152843</v>
       </c>
       <c r="F17" t="n">
-        <v>0.051</v>
+        <v>0.0441</v>
       </c>
     </row>
     <row r="18">
@@ -688,7 +688,7 @@
         <v>0.000367878536307601</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8338</v>
+        <v>0.8305</v>
       </c>
     </row>
     <row r="19">
@@ -708,7 +708,7 @@
         <v>0.00541236375189672</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3552</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="20">
@@ -758,7 +758,7 @@
         <v>0.00493017592602105</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4065</v>
+        <v>0.3975</v>
       </c>
     </row>
     <row r="23">
@@ -778,7 +778,7 @@
         <v>0.00579732293059869</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3764</v>
+        <v>0.3941</v>
       </c>
     </row>
     <row r="24">
@@ -798,7 +798,7 @@
         <v>0.0118234623782455</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1813</v>
+        <v>0.1848</v>
       </c>
     </row>
     <row r="25">
@@ -848,7 +848,7 @@
         <v>0.00185587372689066</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5415</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="28">
@@ -868,7 +868,7 @@
         <v>0.0456794497500432</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0099</v>
+        <v>0.0098</v>
       </c>
     </row>
     <row r="29">
@@ -888,7 +888,7 @@
         <v>0.00175819616231748</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5811</v>
+        <v>0.5772</v>
       </c>
     </row>
     <row r="30">
@@ -938,7 +938,7 @@
         <v>0.0112011162609259</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2005</v>
+        <v>0.2036</v>
       </c>
     </row>
     <row r="33">
@@ -958,7 +958,7 @@
         <v>0.0016140165317366</v>
       </c>
       <c r="F33" t="n">
-        <v>0.631</v>
+        <v>0.6316</v>
       </c>
     </row>
     <row r="34">
@@ -978,7 +978,7 @@
         <v>0.00000136027018191796</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9878</v>
+        <v>0.9873</v>
       </c>
     </row>
     <row r="35">

--- a/Tables/PERMANOVA_den_spInt_2.xlsx
+++ b/Tables/PERMANOVA_den_spInt_2.xlsx
@@ -398,7 +398,7 @@
         <v>0.002650713101611</v>
       </c>
       <c r="F2" t="n">
-        <v>0.555</v>
+        <v>0.5655</v>
       </c>
     </row>
     <row r="3">
@@ -418,7 +418,7 @@
         <v>0.0401167365139694</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0114</v>
+        <v>0.0088</v>
       </c>
     </row>
     <row r="4">
@@ -438,7 +438,7 @@
         <v>0.00251120188573678</v>
       </c>
       <c r="F4" t="n">
-        <v>0.577</v>
+        <v>0.5682</v>
       </c>
     </row>
     <row r="5">
@@ -488,7 +488,7 @@
         <v>0.0138722947395802</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1574</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="8">
@@ -508,7 +508,7 @@
         <v>0.0199970674413946</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0854</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="9">
@@ -528,7 +528,7 @@
         <v>0.00000256362145470215</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9872</v>
+        <v>0.9838</v>
       </c>
     </row>
     <row r="10">
@@ -578,7 +578,7 @@
         <v>0.00114305871585833</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7038</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         <v>0.00093456869933978</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7262</v>
+        <v>0.7278</v>
       </c>
     </row>
     <row r="14">
@@ -618,7 +618,7 @@
         <v>0.00214741963653068</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5914</v>
+        <v>0.5897</v>
       </c>
     </row>
     <row r="15">
@@ -668,7 +668,7 @@
         <v>0.0254872316152843</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0441</v>
+        <v>0.0462</v>
       </c>
     </row>
     <row r="18">
@@ -688,7 +688,7 @@
         <v>0.000367878536307601</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8305</v>
+        <v>0.8251</v>
       </c>
     </row>
     <row r="19">
@@ -708,7 +708,7 @@
         <v>0.00541236375189672</v>
       </c>
       <c r="F19" t="n">
-        <v>0.351</v>
+        <v>0.3598</v>
       </c>
     </row>
     <row r="20">
@@ -758,7 +758,7 @@
         <v>0.00493017592602105</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3975</v>
+        <v>0.4092</v>
       </c>
     </row>
     <row r="23">
@@ -778,7 +778,7 @@
         <v>0.00579732293059869</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3941</v>
+        <v>0.3778</v>
       </c>
     </row>
     <row r="24">
@@ -798,7 +798,7 @@
         <v>0.0118234623782455</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1848</v>
+        <v>0.1797</v>
       </c>
     </row>
     <row r="25">
@@ -848,7 +848,7 @@
         <v>0.00185587372689066</v>
       </c>
       <c r="F27" t="n">
-        <v>0.542</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="28">
@@ -868,7 +868,7 @@
         <v>0.0456794497500432</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0098</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="29">
@@ -938,7 +938,7 @@
         <v>0.0112011162609259</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2036</v>
+        <v>0.2017</v>
       </c>
     </row>
     <row r="33">
@@ -958,7 +958,7 @@
         <v>0.0016140165317366</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6316</v>
+        <v>0.6376</v>
       </c>
     </row>
     <row r="34">
@@ -978,7 +978,7 @@
         <v>0.00000136027018191796</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9873</v>
+        <v>0.9877</v>
       </c>
     </row>
     <row r="35">

--- a/Tables/PERMANOVA_den_spInt_2.xlsx
+++ b/Tables/PERMANOVA_den_spInt_2.xlsx
@@ -398,7 +398,7 @@
         <v>0.002650713101611</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5655</v>
+        <v>0.5654</v>
       </c>
     </row>
     <row r="3">
@@ -418,7 +418,7 @@
         <v>0.0401167365139694</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0088</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="4">
@@ -438,7 +438,7 @@
         <v>0.00251120188573678</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5682</v>
+        <v>0.5654</v>
       </c>
     </row>
     <row r="5">
@@ -488,7 +488,7 @@
         <v>0.0138722947395802</v>
       </c>
       <c r="F7" t="n">
-        <v>0.153</v>
+        <v>0.1601</v>
       </c>
     </row>
     <row r="8">
@@ -508,7 +508,7 @@
         <v>0.0199970674413946</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09</v>
+        <v>0.0861</v>
       </c>
     </row>
     <row r="9">
@@ -528,7 +528,7 @@
         <v>0.00000256362145470215</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9838</v>
+        <v>0.9823</v>
       </c>
     </row>
     <row r="10">
@@ -578,7 +578,7 @@
         <v>0.00114305871585833</v>
       </c>
       <c r="F12" t="n">
-        <v>0.698</v>
+        <v>0.7072</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         <v>0.00093456869933978</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7278</v>
+        <v>0.7283</v>
       </c>
     </row>
     <row r="14">
@@ -618,7 +618,7 @@
         <v>0.00214741963653068</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5897</v>
+        <v>0.598</v>
       </c>
     </row>
     <row r="15">
@@ -668,7 +668,7 @@
         <v>0.0254872316152843</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0462</v>
+        <v>0.0522</v>
       </c>
     </row>
     <row r="18">
@@ -688,7 +688,7 @@
         <v>0.000367878536307601</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8251</v>
+        <v>0.8257</v>
       </c>
     </row>
     <row r="19">
@@ -708,7 +708,7 @@
         <v>0.00541236375189672</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3598</v>
+        <v>0.3591</v>
       </c>
     </row>
     <row r="20">
@@ -758,7 +758,7 @@
         <v>0.00493017592602105</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4092</v>
+        <v>0.4066</v>
       </c>
     </row>
     <row r="23">
@@ -778,7 +778,7 @@
         <v>0.00579732293059869</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3778</v>
+        <v>0.3789</v>
       </c>
     </row>
     <row r="24">
@@ -798,7 +798,7 @@
         <v>0.0118234623782455</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1797</v>
+        <v>0.1808</v>
       </c>
     </row>
     <row r="25">
@@ -848,7 +848,7 @@
         <v>0.00185587372689066</v>
       </c>
       <c r="F27" t="n">
-        <v>0.545</v>
+        <v>0.5281</v>
       </c>
     </row>
     <row r="28">
@@ -868,7 +868,7 @@
         <v>0.0456794497500432</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="29">
@@ -888,7 +888,7 @@
         <v>0.00175819616231748</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5772</v>
+        <v>0.5738</v>
       </c>
     </row>
     <row r="30">
@@ -938,7 +938,7 @@
         <v>0.0112011162609259</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2017</v>
+        <v>0.2015</v>
       </c>
     </row>
     <row r="33">
@@ -958,7 +958,7 @@
         <v>0.0016140165317366</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6376</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="34">
@@ -978,7 +978,7 @@
         <v>0.00000136027018191796</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9877</v>
+        <v>0.9882</v>
       </c>
     </row>
     <row r="35">
